--- a/Escenarios.xlsx
+++ b/Escenarios.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Casos Exitosos</t>
   </si>
@@ -60,6 +60,48 @@
   </si>
   <si>
     <t>idArea = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Retorna la lista de cargas dadas</t>
+  </si>
+  <si>
+    <t>idBuque = 8     idCarga = 8     idCarga = 9</t>
+  </si>
+  <si>
+    <t>Error con las PK… Las cargas no existen</t>
+  </si>
+  <si>
+    <t>Retorna el buque con id = 9</t>
+  </si>
+  <si>
+    <t>idBuque = 11</t>
+  </si>
+  <si>
+    <t>Error… No existe el buque</t>
+  </si>
+  <si>
+    <t>Retorna el buque con id = 1</t>
+  </si>
+  <si>
+    <t>Postman</t>
+  </si>
+  <si>
+    <t>{ "id": 1, "nombre": "Goofy", "registroCapitania": "RG10000", "agenciaMaritima": "SAILORS", "cantidadContenedores": 0, "capacidad": 100, "estado": "DESHABILITADO", "ocupacionActual": 0}</t>
+  </si>
+  <si>
+    <t>Retorna el area con id = 1</t>
+  </si>
+  <si>
+    <t>{ "id": 9, "nombre": "SergioBoat", "registroCapitania": "RG20020", "agenciaMaritima": "Royal", "cantidadContenedores": 0, "capacidad": 80, "estado": "DISPONIBLE", "ocupacionActual": 0}</t>
+  </si>
+  <si>
+    <t>{ "id": 1, "capacidad": 10000,                "tipo": "BODEGAS",              "ocupacion": 9500,                         "estado": "LIBRE"}</t>
+  </si>
+  <si>
+    <t>{ "id": 1, "capacidad": 10000,          "tipo": "BODEGAS",                          "ocupacion": 0,                                      "estado": "CERRADA"}</t>
   </si>
 </sst>
 </file>
@@ -103,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -116,6 +158,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D16"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,9 +453,10 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -420,106 +466,142 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="105" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="105" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D16" s="3"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
